--- a/matlab/Data_Import/Conversions_v2.xlsx
+++ b/matlab/Data_Import/Conversions_v2.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Hawkesbury\matlab\Data_Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\Data_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3952309A-38CD-4651-BC4F-9E07C2DB815F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Sal_gperL</t>
   </si>
@@ -165,12 +174,24 @@
   </si>
   <si>
     <t>Chlorophyll_checkunit</t>
+  </si>
+  <si>
+    <t>Conductivity_microSpercm</t>
+  </si>
+  <si>
+    <t>Ammonium_mgperL</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,20 +541,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -547,7 +569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -575,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -589,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -604,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -619,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -634,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -649,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -664,7 +686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -679,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -694,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -709,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -724,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -739,7 +761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -753,7 +775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -767,7 +789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -781,7 +803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -795,7 +817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -809,7 +831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -821,6 +843,35 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/Data_Import/Conversions_v2.xlsx
+++ b/matlab/Data_Import/Conversions_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\Data_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3952309A-38CD-4651-BC4F-9E07C2DB815F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16248FAA-535E-48B2-B568-2D49B4923121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Sal_gperL</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>uS/cm</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H1" sqref="H1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +877,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
